--- a/public/excel/user.xlsx
+++ b/public/excel/user.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
-  <si>
-    <t>Nama</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+  <si>
+    <t>nama</t>
   </si>
   <si>
     <t>Jurusan</t>
@@ -40,9 +40,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Nama Ayah</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>mannd</t>
   </si>
   <si>
-    <t>asddsa</t>
-  </si>
-  <si>
     <t>sukarno</t>
   </si>
   <si>
@@ -170,6 +164,36 @@
   </si>
   <si>
     <t>guru</t>
+  </si>
+  <si>
+    <t>gharyn</t>
+  </si>
+  <si>
+    <t>Farmasi Kesehatan</t>
+  </si>
+  <si>
+    <t>kuliah</t>
+  </si>
+  <si>
+    <t>nanda</t>
+  </si>
+  <si>
+    <t>Teknik Laboratorium Medik</t>
+  </si>
+  <si>
+    <t>menganggur</t>
+  </si>
+  <si>
+    <t>dimas</t>
+  </si>
+  <si>
+    <t>toriq</t>
+  </si>
+  <si>
+    <t>genta</t>
+  </si>
+  <si>
+    <t>abdi</t>
   </si>
 </sst>
 </file>
@@ -177,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,6 +222,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,14 +253,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,98 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -333,13 +364,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -350,187 +374,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,31 +569,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,8 +610,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,25 +641,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,154 +668,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1141,13 +1167,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.8518518518519" customWidth="1"/>
     <col min="2" max="2" width="34.1388888888889" customWidth="1"/>
@@ -1155,10 +1181,10 @@
     <col min="4" max="4" width="36.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="10.5648148148148" customWidth="1"/>
     <col min="6" max="6" width="8.13888888888889" customWidth="1"/>
-    <col min="19" max="20" width="9.22222222222222"/>
+    <col min="18" max="19" width="9.22222222222222"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,233 +1242,509 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
       <c r="F2">
         <v>20000</v>
       </c>
       <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2">
+        <v>123321</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="M2">
-        <v>123321</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="B3" t="s">
         <v>33</v>
-      </c>
-      <c r="T2" s="2">
-        <v>38779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <v>234432</v>
+      </c>
+      <c r="M3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="M3">
-        <v>234432</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="B4" t="s">
         <v>33</v>
-      </c>
-      <c r="T3" s="2">
-        <v>38779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
       </c>
       <c r="C4">
         <v>123456</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>2001</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>345543</v>
+      </c>
+      <c r="M4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4">
-        <v>345543</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="T4" s="2">
-        <v>38779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
       </c>
       <c r="C5">
         <v>123456</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2002</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>456654</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>2003</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>123321</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>123456</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
         <v>2001</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7">
+        <v>234432</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>123456</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>2004</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8">
+        <v>345543</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>2003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>456654</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>2005</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>456654</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <v>123321</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="4">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="O5" t="s">
+      <c r="C11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>2005</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>234432</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
         <v>31</v>
       </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="S11" s="4">
         <v>38779</v>
       </c>
+    </row>
+    <row r="12" spans="19:19">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="19:19">
+      <c r="S13" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/public/excel/user.xlsx
+++ b/public/excel/user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Nama</t>
   </si>
@@ -22,22 +22,52 @@
     <t>Jurusan</t>
   </si>
   <si>
+    <t>No Hp</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Angkatan</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Nama Ayah</t>
+  </si>
+  <si>
+    <t>Nama Ibu</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
     <t>Nisn</t>
   </si>
   <si>
-    <t>Alamat</t>
-  </si>
-  <si>
-    <t>Angkatan</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>No Hp</t>
+    <t>Pekerjaan Ayah</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ibu</t>
+  </si>
+  <si>
+    <t>Status Pernikahan</t>
+  </si>
+  <si>
+    <t>Tempat Kerja</t>
+  </si>
+  <si>
+    <t>Tempat Kuliah</t>
   </si>
   <si>
     <t>Tempat Lahir</t>
@@ -46,31 +76,10 @@
     <t>Tanggal Lahir</t>
   </si>
   <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Status pernikahan</t>
-  </si>
-  <si>
-    <t>Tempat Kerja</t>
-  </si>
-  <si>
-    <t>Tempat Kuliah</t>
-  </si>
-  <si>
-    <t>Nama Ayah</t>
-  </si>
-  <si>
-    <t>Nama Ibu</t>
-  </si>
-  <si>
-    <t>Pekerjaan Ayah</t>
-  </si>
-  <si>
-    <t>Pekerjaan Ibu</t>
-  </si>
-  <si>
-    <t>Armand Nur</t>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Teknik Komputer dan Jaringan</t>
   </si>
   <si>
     <t>zxuanggg@gmail.com</t>
@@ -82,28 +91,85 @@
     <t>kerja</t>
   </si>
   <si>
-    <t>085163562456</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
+    <t>mannd</t>
+  </si>
+  <si>
+    <t>asddsa</t>
+  </si>
+  <si>
+    <t>sukarno</t>
+  </si>
+  <si>
+    <t>siti</t>
   </si>
   <si>
     <t>laki-laki</t>
   </si>
   <si>
-    <t>menikah</t>
-  </si>
-  <si>
-    <t>EKO</t>
-  </si>
-  <si>
-    <t>Tri</t>
-  </si>
-  <si>
-    <t>Kantoran</t>
-  </si>
-  <si>
-    <t>IRT</t>
+    <t>kantoran</t>
+  </si>
+  <si>
+    <t>irt</t>
+  </si>
+  <si>
+    <t>belum menikah</t>
+  </si>
+  <si>
+    <t>jakarta</t>
+  </si>
+  <si>
+    <t>Siska</t>
+  </si>
+  <si>
+    <t>Akutansi Komputer</t>
+  </si>
+  <si>
+    <t>siska@gmail.com</t>
+  </si>
+  <si>
+    <t>mozyxue</t>
+  </si>
+  <si>
+    <t>sucipto</t>
+  </si>
+  <si>
+    <t>aminah</t>
+  </si>
+  <si>
+    <t>perempuan</t>
+  </si>
+  <si>
+    <t>pns</t>
+  </si>
+  <si>
+    <t>Sinta</t>
+  </si>
+  <si>
+    <t>sinta@gmail.com</t>
+  </si>
+  <si>
+    <t>edi</t>
+  </si>
+  <si>
+    <t>retno</t>
+  </si>
+  <si>
+    <t>pengusaha</t>
+  </si>
+  <si>
+    <t>Rias</t>
+  </si>
+  <si>
+    <t>risa@gmail.com</t>
+  </si>
+  <si>
+    <t>muraad</t>
+  </si>
+  <si>
+    <t>kartika</t>
+  </si>
+  <si>
+    <t>guru</t>
   </si>
 </sst>
 </file>
@@ -111,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -124,6 +190,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,6 +206,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,37 +222,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,9 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +291,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,69 +311,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +350,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,169 +404,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +541,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,6 +579,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,15 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -539,15 +614,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,153 +644,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1074,33 +1141,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="12.8518518518519" customWidth="1"/>
-    <col min="2" max="2" width="9.28703703703704" customWidth="1"/>
+    <col min="2" max="2" width="34.1388888888889" customWidth="1"/>
     <col min="3" max="3" width="22.2777777777778" customWidth="1"/>
-    <col min="4" max="4" width="8.13888888888889" customWidth="1"/>
-    <col min="5" max="5" width="36.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="10.5648148148148" customWidth="1"/>
-    <col min="7" max="7" width="8.13888888888889" customWidth="1"/>
-    <col min="8" max="9" width="15.2777777777778" customWidth="1"/>
-    <col min="10" max="11" width="16.4259259259259" customWidth="1"/>
-    <col min="12" max="12" width="21.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="15.2777777777778" customWidth="1"/>
-    <col min="14" max="14" width="16.4259259259259" customWidth="1"/>
-    <col min="15" max="15" width="11.712962962963" customWidth="1"/>
-    <col min="16" max="16" width="10.5648148148148" customWidth="1"/>
-    <col min="17" max="17" width="17.5648148148148" customWidth="1"/>
-    <col min="18" max="18" width="16.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="36.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.5648148148148" customWidth="1"/>
+    <col min="6" max="6" width="8.13888888888889" customWidth="1"/>
+    <col min="19" max="20" width="9.22222222222222"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,55 +1213,243 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>20000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2">
         <v>123321</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>2000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="2">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1">
-        <v>45282</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F3">
+        <v>2001</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>234432</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="2">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>2001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>345543</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="2">
+        <v>38779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>456654</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="2">
+        <v>38779</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="siska@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId2" display="sinta@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId3" display="risa@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>

--- a/public/excel/user.xlsx
+++ b/public/excel/user.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Azzam\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC5E0A-6177-4DF1-A94C-5984D147DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9924"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Nama</t>
   </si>
@@ -170,19 +176,16 @@
   </si>
   <si>
     <t>guru</t>
+  </si>
+  <si>
+    <t>jonggol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,348 +197,18 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -543,312 +216,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1135,27 +526,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.8518518518519" customWidth="1"/>
-    <col min="2" max="2" width="34.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="22.2777777777778" customWidth="1"/>
-    <col min="4" max="4" width="36.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.5648148148148" customWidth="1"/>
-    <col min="6" max="6" width="8.13888888888889" customWidth="1"/>
-    <col min="19" max="20" width="9.22222222222222"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" customWidth="1"/>
+    <col min="19" max="20" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1269,6 +660,9 @@
       <c r="P2" t="s">
         <v>32</v>
       </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
       <c r="S2" t="s">
         <v>33</v>
       </c>
@@ -1446,12 +840,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="siska@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId2" display="sinta@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId3" display="risa@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>